--- a/Box_Links.xlsx
+++ b/Box_Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suneel_Bharthi\BOX_DATA_SCRAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suneel_Bharthi\Data Analyst -github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D4DE0-6CCD-4560-B1FF-00AFAF45445D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE6DCA-4C65-415C-8DCD-13A74957C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Links</t>
   </si>
   <si>
     <t>https://box.co.uk/nx-ktdek-002-acer-swift-edge-amd-ryzen-7-8840u-16-gb</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/nx-j2kek-004-acer-swift-14-intel-core-ultra-7-256v-1</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/nx-kyxek-003-acer-swift-14-qualcomm-snapdragon-100</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/nx-j2kek-002-acer-swift-14-intel-core-ultra-5-226v-1</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/nx-ab1ek-00d-acer-swift-3-amd-ryzen-5-5500u-16-gb</t>
   </si>
 </sst>
 </file>
@@ -368,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,9 +401,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B278C59B-3DB2-4C26-A56D-7E4299A69F3C}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{665AD996-79F0-4D12-909B-DF9A316D4292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Box_Links.xlsx
+++ b/Box_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suneel_Bharthi\Data Analyst -github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE6DCA-4C65-415C-8DCD-13A74957C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B984F1F9-3AEA-4E7E-AC29-1B6F308E6C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Links</t>
   </si>
@@ -33,16 +33,19 @@
     <t>https://box.co.uk/nx-ktdek-002-acer-swift-edge-amd-ryzen-7-8840u-16-gb</t>
   </si>
   <si>
-    <t>https://box.co.uk/nx-j2kek-004-acer-swift-14-intel-core-ultra-7-256v-1</t>
-  </si>
-  <si>
-    <t>https://box.co.uk/nx-kyxek-003-acer-swift-14-qualcomm-snapdragon-100</t>
-  </si>
-  <si>
-    <t>https://box.co.uk/nx-j2kek-002-acer-swift-14-intel-core-ultra-5-226v-1</t>
-  </si>
-  <si>
-    <t>https://box.co.uk/nx-ab1ek-00d-acer-swift-3-amd-ryzen-5-5500u-16-gb</t>
+    <t>https://box.co.uk/acer-swift-laptops</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/9h-lk4la-tbe-benq-ex2710q-27in-2k-ultrahd-ips-gaming</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/vg34vqel1a-asus-tuf-34-uwqhd-led-100hz-curved-gaming</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/82yu00hxuk-lenovo-v15-g4-amd-ryzen-5-16gb-256gb</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/gigabyte-graphic-cards</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +406,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -413,20 +416,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{665AD996-79F0-4D12-909B-DF9A316D4292}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{92B895BB-FB8E-47D1-B66B-3018A7925D9C}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{17088717-7A4D-4932-A60E-A49100169946}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{5AC3EF53-DBA1-456C-934A-28593F618779}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{F2B29C1B-6932-44F5-BD8A-44F66883D766}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{6B481127-ECFC-4748-8E64-BD8CA1C646C0}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{0BBBDBF0-8BA0-4CE8-AC22-A57B97549D7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
